--- a/run_log/run_results/train_history/training_history_run_5.xlsx
+++ b/run_log/run_results/train_history/training_history_run_5.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.03973041847348213</v>
+        <v>0.1068081706762314</v>
       </c>
       <c r="B2">
-        <v>0.9895365238189697</v>
+        <v>0.9673090577125549</v>
       </c>
       <c r="C2">
-        <v>0.0227386225014925</v>
+        <v>0.0221733134239912</v>
       </c>
       <c r="D2">
-        <v>0.9956521987915039</v>
+        <v>0.9959924221038818</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.005051083862781525</v>
+        <v>0.02469750680029392</v>
       </c>
       <c r="B3">
-        <v>0.9987995624542236</v>
+        <v>0.9943469762802124</v>
       </c>
       <c r="C3">
-        <v>0.01479867100715637</v>
+        <v>0.00997348316013813</v>
       </c>
       <c r="D3">
-        <v>0.99681156873703</v>
+        <v>0.9988341331481934</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.001998384483158588</v>
+        <v>0.0159869696944952</v>
       </c>
       <c r="B4">
-        <v>0.9994646310806274</v>
+        <v>0.995252251625061</v>
       </c>
       <c r="C4">
-        <v>0.007990286685526371</v>
+        <v>0.006918943952769041</v>
       </c>
       <c r="D4">
-        <v>0.9988405704498291</v>
+        <v>0.9975954294204712</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.0007095327600836754</v>
+        <v>0.012208366766572</v>
       </c>
       <c r="B5">
-        <v>0.9997729063034058</v>
+        <v>0.9950108528137207</v>
       </c>
       <c r="C5">
-        <v>0.007171179633587599</v>
+        <v>0.004813738167285919</v>
       </c>
       <c r="D5">
-        <v>0.9985507130622864</v>
+        <v>0.998105525970459</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0006012226222082973</v>
+        <v>0.01113185100257397</v>
       </c>
       <c r="B6">
-        <v>0.9998377561569214</v>
+        <v>0.995252251625061</v>
       </c>
       <c r="C6">
-        <v>0.01210425421595573</v>
+        <v>0.001581466873176396</v>
       </c>
       <c r="D6">
-        <v>0.9985507130622864</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0009764243732206523</v>
+        <v>0.01062070205807686</v>
       </c>
       <c r="B7">
-        <v>0.9997242093086243</v>
+        <v>0.9951717853546143</v>
       </c>
       <c r="C7">
-        <v>0.008256138302385807</v>
+        <v>0.001875111483968794</v>
       </c>
       <c r="D7">
-        <v>0.9985507130622864</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0002696979499887675</v>
+        <v>0.01133355498313904</v>
       </c>
       <c r="B8">
-        <v>0.9999188780784607</v>
+        <v>0.9949706196784973</v>
       </c>
       <c r="C8">
-        <v>0.009594039060175419</v>
+        <v>0.001390560530126095</v>
       </c>
       <c r="D8">
-        <v>0.9991304278373718</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0006748051382601261</v>
+        <v>0.009661545045673847</v>
       </c>
       <c r="B9">
-        <v>0.9998053312301636</v>
+        <v>0.9956948757171631</v>
       </c>
       <c r="C9">
-        <v>0.009794723242521286</v>
+        <v>0.001344242598861456</v>
       </c>
       <c r="D9">
-        <v>0.9988405704498291</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0007545009138993919</v>
+        <v>0.009431255050003529</v>
       </c>
       <c r="B10">
-        <v>0.9998864531517029</v>
+        <v>0.9954534769058228</v>
       </c>
       <c r="C10">
-        <v>0.009011379443109035</v>
+        <v>0.001576627953909338</v>
       </c>
       <c r="D10">
-        <v>0.9991304278373718</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0005194961559027433</v>
+        <v>0.009200803004205227</v>
       </c>
       <c r="B11">
-        <v>0.9998377561569214</v>
+        <v>0.9954735636711121</v>
       </c>
       <c r="C11">
-        <v>0.008071168325841427</v>
+        <v>0.001212380127981305</v>
       </c>
       <c r="D11">
-        <v>0.9985507130622864</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0001315288682235405</v>
+        <v>0.01015620399266481</v>
       </c>
       <c r="B12">
-        <v>0.9999513030052185</v>
+        <v>0.9950712323188782</v>
       </c>
       <c r="C12">
-        <v>0.01149038225412369</v>
+        <v>0.002772331004962325</v>
       </c>
       <c r="D12">
-        <v>0.9982608556747437</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.000186129953362979</v>
+        <v>0.009123739786446095</v>
       </c>
       <c r="B13">
-        <v>0.9999513030052185</v>
+        <v>0.9956546425819397</v>
       </c>
       <c r="C13">
-        <v>0.01019625645130873</v>
+        <v>0.001736307633109391</v>
       </c>
       <c r="D13">
-        <v>0.9982608556747437</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0004267549666110426</v>
+        <v>0.009336655959486961</v>
       </c>
       <c r="B14">
-        <v>0.9999026656150818</v>
+        <v>0.9951919317245483</v>
       </c>
       <c r="C14">
-        <v>0.01837809383869171</v>
+        <v>0.002222855109721422</v>
       </c>
       <c r="D14">
-        <v>0.9991304278373718</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0001605046272743493</v>
+        <v>0.008759592659771442</v>
       </c>
       <c r="B15">
-        <v>0.9999513030052185</v>
+        <v>0.9958155751228333</v>
       </c>
       <c r="C15">
-        <v>0.008109507150948048</v>
+        <v>0.001724094850942492</v>
       </c>
       <c r="D15">
-        <v>0.9994202852249146</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>8.968449401436374E-05</v>
+        <v>0.00934179313480854</v>
       </c>
       <c r="B16">
-        <v>0.9999837875366211</v>
+        <v>0.9954333305358887</v>
       </c>
       <c r="C16">
-        <v>0.01131164468824863</v>
+        <v>0.001524470513686538</v>
       </c>
       <c r="D16">
-        <v>0.9991304278373718</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0004950040602125227</v>
+        <v>0.009614747017621994</v>
       </c>
       <c r="B17">
-        <v>0.9998377561569214</v>
+        <v>0.9953126311302185</v>
       </c>
       <c r="C17">
-        <v>0.01325242221355438</v>
+        <v>0.004663704894483089</v>
       </c>
       <c r="D17">
-        <v>0.9994202852249146</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0003712166217155755</v>
+        <v>0.009268315508961678</v>
       </c>
       <c r="B18">
-        <v>0.9999513030052185</v>
+        <v>0.9951315522193909</v>
       </c>
       <c r="C18">
-        <v>0.009711394086480141</v>
+        <v>0.002417960204184055</v>
       </c>
       <c r="D18">
-        <v>0.9994202852249146</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0002344450767850503</v>
+        <v>0.008870344609022141</v>
       </c>
       <c r="B19">
-        <v>0.9999675750732422</v>
+        <v>0.9954534769058228</v>
       </c>
       <c r="C19">
-        <v>0.01025447901338339</v>
+        <v>0.001171692390926182</v>
       </c>
       <c r="D19">
-        <v>0.9991304278373718</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1.485933171352372E-05</v>
+        <v>0.009318721480667591</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.9955741763114929</v>
       </c>
       <c r="C20">
-        <v>0.007757158018648624</v>
+        <v>0.001172867137938738</v>
       </c>
       <c r="D20">
-        <v>0.9994202852249146</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0008491139742545784</v>
+        <v>0.008593840524554253</v>
       </c>
       <c r="B21">
-        <v>0.9998539686203003</v>
+        <v>0.9958758950233459</v>
       </c>
       <c r="C21">
-        <v>0.01006490737199783</v>
+        <v>0.001350579201243818</v>
       </c>
       <c r="D21">
-        <v>0.9994202852249146</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.000610426883213222</v>
+        <v>0.009307581000030041</v>
       </c>
       <c r="B22">
-        <v>0.9999026656150818</v>
+        <v>0.9955339431762695</v>
       </c>
       <c r="C22">
-        <v>0.01187141425907612</v>
+        <v>0.001290653832256794</v>
       </c>
       <c r="D22">
-        <v>0.9991304278373718</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0001300462317885831</v>
+        <v>0.009420525282621384</v>
       </c>
       <c r="B23">
-        <v>0.9999513030052185</v>
+        <v>0.9952120184898376</v>
       </c>
       <c r="C23">
-        <v>0.009099951945245266</v>
+        <v>0.001219181809574366</v>
       </c>
       <c r="D23">
-        <v>0.9994202852249146</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>5.114251962368144E-06</v>
+        <v>0.008851123042404652</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9955741763114929</v>
       </c>
       <c r="C24">
-        <v>0.009184273891150951</v>
+        <v>0.002010358031839132</v>
       </c>
       <c r="D24">
-        <v>0.9994202852249146</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>1.959641485882457E-05</v>
+        <v>0.009741540066897869</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9948901534080505</v>
       </c>
       <c r="C25">
-        <v>0.009142019785940647</v>
+        <v>0.00380669254809618</v>
       </c>
       <c r="D25">
-        <v>0.9994202852249146</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1.024711991703953E-06</v>
+        <v>0.01077430881559849</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9949706196784973</v>
       </c>
       <c r="C26">
-        <v>0.009831166826188564</v>
+        <v>0.001256832503713667</v>
       </c>
       <c r="D26">
-        <v>0.9994202852249146</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0001787318615242839</v>
+        <v>0.009092814289033413</v>
       </c>
       <c r="B27">
-        <v>0.9999837875366211</v>
+        <v>0.995674729347229</v>
       </c>
       <c r="C27">
-        <v>0.01632420159876347</v>
+        <v>0.001407375908456743</v>
       </c>
       <c r="D27">
-        <v>0.9991304278373718</v>
+        <v>0.9994170665740967</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0006397656979970634</v>
+        <v>0.008677861653268337</v>
       </c>
       <c r="B28">
-        <v>0.9998215436935425</v>
+        <v>0.9955339431762695</v>
       </c>
       <c r="C28">
-        <v>0.0151934651657939</v>
+        <v>0.001287330058403313</v>
       </c>
       <c r="D28">
-        <v>0.9991304278373718</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>2.329187009308953E-05</v>
+        <v>0.008799066767096519</v>
       </c>
       <c r="B29">
-        <v>0.9999837875366211</v>
+        <v>0.9956546425819397</v>
       </c>
       <c r="C29">
-        <v>0.01574413105845451</v>
+        <v>0.001282678917050362</v>
       </c>
       <c r="D29">
-        <v>0.9985507130622864</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0002057003293884918</v>
+        <v>0.0091822799295187</v>
       </c>
       <c r="B30">
-        <v>0.9999513030052185</v>
+        <v>0.9951114654541016</v>
       </c>
       <c r="C30">
-        <v>0.01432240009307861</v>
+        <v>0.0009748386219143867</v>
       </c>
       <c r="D30">
-        <v>0.9994202852249146</v>
+        <v>0.9994170665740967</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0005212773103266954</v>
+        <v>0.008524461649358273</v>
       </c>
       <c r="B31">
-        <v>0.9999026656150818</v>
+        <v>0.9954333305358887</v>
       </c>
       <c r="C31">
-        <v>0.01455164700746536</v>
+        <v>0.001098708482459188</v>
       </c>
       <c r="D31">
-        <v>0.9994202852249146</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001915881875902414</v>
+        <v>0.00949336402118206</v>
       </c>
       <c r="B32">
-        <v>0.9999513030052185</v>
+        <v>0.9953126311302185</v>
       </c>
       <c r="C32">
-        <v>0.005071509163826704</v>
+        <v>0.00107584975194186</v>
       </c>
       <c r="D32">
-        <v>0.9997101426124573</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001468492555432022</v>
+        <v>0.009108642116189003</v>
       </c>
       <c r="B33">
-        <v>0.9999675750732422</v>
+        <v>0.9949907660484314</v>
       </c>
       <c r="C33">
-        <v>0.01545722037553787</v>
+        <v>0.00102001300547272</v>
       </c>
       <c r="D33">
-        <v>0.9994202852249146</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0003748522431124002</v>
+        <v>0.008581042289733887</v>
       </c>
       <c r="B34">
-        <v>0.9999026656150818</v>
+        <v>0.9957551956176758</v>
       </c>
       <c r="C34">
-        <v>0.01039117202162743</v>
+        <v>0.001042782212607563</v>
       </c>
       <c r="D34">
-        <v>0.9991304278373718</v>
+        <v>0.9994170665740967</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>3.49705915141385E-05</v>
+        <v>0.009838566184043884</v>
       </c>
       <c r="B35">
-        <v>0.9999837875366211</v>
+        <v>0.9950108528137207</v>
       </c>
       <c r="C35">
-        <v>0.01520296093076468</v>
+        <v>0.00976625457406044</v>
       </c>
       <c r="D35">
-        <v>0.9991304278373718</v>
+        <v>0.9992713332176208</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>2.788374558804207E-06</v>
+        <v>0.008432622998952866</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9957753419876099</v>
       </c>
       <c r="C36">
-        <v>0.01492778491228819</v>
+        <v>0.001126538380049169</v>
       </c>
       <c r="D36">
-        <v>0.9994202852249146</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1.382644200020877E-06</v>
+        <v>0.008704917505383492</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9953930974006653</v>
       </c>
       <c r="C37">
-        <v>0.01509819366037846</v>
+        <v>0.0009408654295839369</v>
       </c>
       <c r="D37">
-        <v>0.9994202852249146</v>
+        <v>0.999489963054657</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.000438306073192507</v>
+        <v>0.008937020786106586</v>
       </c>
       <c r="B38">
-        <v>0.999870240688324</v>
+        <v>0.9954131841659546</v>
       </c>
       <c r="C38">
-        <v>0.01595780439674854</v>
+        <v>0.008867413736879826</v>
       </c>
       <c r="D38">
-        <v>0.9991304278373718</v>
+        <v>0.9992713332176208</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0002023964916588739</v>
+        <v>0.008721551857888699</v>
       </c>
       <c r="B39">
-        <v>0.9999837875366211</v>
+        <v>0.9950712323188782</v>
       </c>
       <c r="C39">
-        <v>0.0144936703145504</v>
+        <v>0.00340975821018219</v>
       </c>
       <c r="D39">
-        <v>0.9991304278373718</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1.289115607505664E-05</v>
+        <v>0.00842635240405798</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9954333305358887</v>
       </c>
       <c r="C40">
-        <v>0.01657352782785892</v>
+        <v>0.003168723313137889</v>
       </c>
       <c r="D40">
-        <v>0.9991304278373718</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.000240934212342836</v>
+        <v>0.008780546486377716</v>
       </c>
       <c r="B41">
-        <v>0.9998864531517029</v>
+        <v>0.9955339431762695</v>
       </c>
       <c r="C41">
-        <v>0.01841791532933712</v>
+        <v>0.002084123436361551</v>
       </c>
       <c r="D41">
-        <v>0.9994202852249146</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>4.636392259271815E-05</v>
+        <v>0.008719589561223984</v>
       </c>
       <c r="B42">
-        <v>0.9999675750732422</v>
+        <v>0.9951315522193909</v>
       </c>
       <c r="C42">
-        <v>0.02267136424779892</v>
+        <v>0.002670306479558349</v>
       </c>
       <c r="D42">
-        <v>0.9994202852249146</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>6.848652992630377E-05</v>
+        <v>0.00840804073959589</v>
       </c>
       <c r="B43">
-        <v>0.9999675750732422</v>
+        <v>0.9954131841659546</v>
       </c>
       <c r="C43">
-        <v>0.02395848371088505</v>
+        <v>0.004714268259704113</v>
       </c>
       <c r="D43">
-        <v>0.9991304278373718</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>8.255993293460051E-07</v>
+        <v>0.00871859397739172</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9956144094467163</v>
       </c>
       <c r="C44">
-        <v>0.0238406416028738</v>
+        <v>0.002476723166182637</v>
       </c>
       <c r="D44">
-        <v>0.9994202852249146</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>6.202136137289926E-05</v>
+        <v>0.008898387663066387</v>
       </c>
       <c r="B45">
-        <v>0.9999837875366211</v>
+        <v>0.9954534769058228</v>
       </c>
       <c r="C45">
-        <v>0.03073653765022755</v>
+        <v>0.004443750716745853</v>
       </c>
       <c r="D45">
-        <v>0.9994202852249146</v>
+        <v>0.9990527629852295</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2.24465002247598E-05</v>
+        <v>0.008342387154698372</v>
       </c>
       <c r="B46">
-        <v>0.9999837875366211</v>
+        <v>0.9958356618881226</v>
       </c>
       <c r="C46">
-        <v>0.02989589981734753</v>
+        <v>0.003080145921558142</v>
       </c>
       <c r="D46">
-        <v>0.9994202852249146</v>
+        <v>0.9990527629852295</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>2.734162229955928E-08</v>
+        <v>0.008390046656131744</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9958356618881226</v>
       </c>
       <c r="C47">
-        <v>0.02981752902269363</v>
+        <v>0.003876763628795743</v>
       </c>
       <c r="D47">
-        <v>0.9994202852249146</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0002831972669810057</v>
+        <v>0.009328382089734077</v>
       </c>
       <c r="B48">
-        <v>0.9999513030052185</v>
+        <v>0.9948901534080505</v>
       </c>
       <c r="C48">
-        <v>0.03051176853477955</v>
+        <v>0.001664511626586318</v>
       </c>
       <c r="D48">
-        <v>0.9985507130622864</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.000487099023303017</v>
+        <v>0.008551171980798244</v>
       </c>
       <c r="B49">
-        <v>0.9999513030052185</v>
+        <v>0.9956144094467163</v>
       </c>
       <c r="C49">
-        <v>0.02431637793779373</v>
+        <v>0.003393363440409303</v>
       </c>
       <c r="D49">
-        <v>0.9988405704498291</v>
+        <v>0.9991984963417053</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001849643158493564</v>
+        <v>0.008087413385510445</v>
       </c>
       <c r="B50">
-        <v>0.9999837875366211</v>
+        <v>0.9957753419876099</v>
       </c>
       <c r="C50">
-        <v>0.02839881926774979</v>
+        <v>0.004807431250810623</v>
       </c>
       <c r="D50">
-        <v>0.9985507130622864</v>
+        <v>0.9978868961334229</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>1.711326694930904E-05</v>
+        <v>0.008895776234567165</v>
       </c>
       <c r="B51">
-        <v>0.9999837875366211</v>
+        <v>0.9953528642654419</v>
       </c>
       <c r="C51">
-        <v>0.03261057287454605</v>
+        <v>0.002282810397446156</v>
       </c>
       <c r="D51">
-        <v>0.9982608556747437</v>
+        <v>0.9993442296981812</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_5.xlsx
+++ b/run_log/run_results/train_history/training_history_run_5.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1068081706762314</v>
+        <v>0.05546469241380692</v>
       </c>
       <c r="B2">
-        <v>0.9673090577125549</v>
+        <v>0.9857710003852844</v>
       </c>
       <c r="C2">
-        <v>0.0221733134239912</v>
+        <v>0.02120971865952015</v>
       </c>
       <c r="D2">
-        <v>0.9959924221038818</v>
+        <v>0.9969012141227722</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.02469750680029392</v>
+        <v>0.008792893961071968</v>
       </c>
       <c r="B3">
-        <v>0.9943469762802124</v>
+        <v>0.9985515475273132</v>
       </c>
       <c r="C3">
-        <v>0.00997348316013813</v>
+        <v>0.01113342307507992</v>
       </c>
       <c r="D3">
-        <v>0.9988341331481934</v>
+        <v>0.9974480271339417</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.0159869696944952</v>
+        <v>0.004834053106606007</v>
       </c>
       <c r="B4">
-        <v>0.995252251625061</v>
+        <v>0.9988753199577332</v>
       </c>
       <c r="C4">
-        <v>0.006918943952769041</v>
+        <v>0.009319002740085125</v>
       </c>
       <c r="D4">
-        <v>0.9975954294204712</v>
+        <v>0.9983594417572021</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.012208366766572</v>
+        <v>0.002686832100152969</v>
       </c>
       <c r="B5">
-        <v>0.9950108528137207</v>
+        <v>0.9991990923881531</v>
       </c>
       <c r="C5">
-        <v>0.004813738167285919</v>
+        <v>0.0302970577031374</v>
       </c>
       <c r="D5">
-        <v>0.998105525970459</v>
+        <v>0.9925264120101929</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01113185100257397</v>
+        <v>0.001079651061445475</v>
       </c>
       <c r="B6">
-        <v>0.995252251625061</v>
+        <v>0.9996762275695801</v>
       </c>
       <c r="C6">
-        <v>0.001581466873176396</v>
+        <v>0.004310355987399817</v>
       </c>
       <c r="D6">
-        <v>0.9993442296981812</v>
+        <v>0.9990885853767395</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01062070205807686</v>
+        <v>0.001054073916748166</v>
       </c>
       <c r="B7">
-        <v>0.9951717853546143</v>
+        <v>0.9997784495353699</v>
       </c>
       <c r="C7">
-        <v>0.001875111483968794</v>
+        <v>0.006501364521682262</v>
       </c>
       <c r="D7">
-        <v>0.9993442296981812</v>
+        <v>0.9992708563804626</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01133355498313904</v>
+        <v>0.001378633547574282</v>
       </c>
       <c r="B8">
-        <v>0.9949706196784973</v>
+        <v>0.9996932744979858</v>
       </c>
       <c r="C8">
-        <v>0.001390560530126095</v>
+        <v>0.002667276421561837</v>
       </c>
       <c r="D8">
-        <v>0.999489963054657</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.009661545045673847</v>
+        <v>0.0008272122358903289</v>
       </c>
       <c r="B9">
-        <v>0.9956948757171631</v>
+        <v>0.999914824962616</v>
       </c>
       <c r="C9">
-        <v>0.001344242598861456</v>
+        <v>0.003131251782178879</v>
       </c>
       <c r="D9">
-        <v>0.999489963054657</v>
+        <v>0.9996354579925537</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.009431255050003529</v>
+        <v>0.0006469819927588105</v>
       </c>
       <c r="B10">
-        <v>0.9954534769058228</v>
+        <v>0.9998466372489929</v>
       </c>
       <c r="C10">
-        <v>0.001576627953909338</v>
+        <v>0.004196631256490946</v>
       </c>
       <c r="D10">
-        <v>0.9991984963417053</v>
+        <v>0.9996354579925537</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.009200803004205227</v>
+        <v>0.0006968732341192663</v>
       </c>
       <c r="B11">
-        <v>0.9954735636711121</v>
+        <v>0.9997614026069641</v>
       </c>
       <c r="C11">
-        <v>0.001212380127981305</v>
+        <v>0.003991793841123581</v>
       </c>
       <c r="D11">
-        <v>0.999489963054657</v>
+        <v>0.9994531273841858</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.01015620399266481</v>
+        <v>0.0005836400086991489</v>
       </c>
       <c r="B12">
-        <v>0.9950712323188782</v>
+        <v>0.9998636841773987</v>
       </c>
       <c r="C12">
-        <v>0.002772331004962325</v>
+        <v>0.003008679719641805</v>
       </c>
       <c r="D12">
-        <v>0.9991984963417053</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.009123739786446095</v>
+        <v>0.0005657775327563286</v>
       </c>
       <c r="B13">
-        <v>0.9956546425819397</v>
+        <v>0.9998295903205872</v>
       </c>
       <c r="C13">
-        <v>0.001736307633109391</v>
+        <v>0.002799747278913856</v>
       </c>
       <c r="D13">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.009336655959486961</v>
+        <v>0.0003733697230927646</v>
       </c>
       <c r="B14">
-        <v>0.9951919317245483</v>
+        <v>0.999914824962616</v>
       </c>
       <c r="C14">
-        <v>0.002222855109721422</v>
+        <v>0.004434531088918447</v>
       </c>
       <c r="D14">
-        <v>0.9993442296981812</v>
+        <v>0.9992708563804626</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.008759592659771442</v>
+        <v>0.0005505099543370306</v>
       </c>
       <c r="B15">
-        <v>0.9958155751228333</v>
+        <v>0.9998295903205872</v>
       </c>
       <c r="C15">
-        <v>0.001724094850942492</v>
+        <v>0.00376470317132771</v>
       </c>
       <c r="D15">
-        <v>0.9991984963417053</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.00934179313480854</v>
+        <v>0.0001653241779422387</v>
       </c>
       <c r="B16">
-        <v>0.9954333305358887</v>
+        <v>0.9999659061431885</v>
       </c>
       <c r="C16">
-        <v>0.001524470513686538</v>
+        <v>0.003182498039677739</v>
       </c>
       <c r="D16">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.009614747017621994</v>
+        <v>0.0001914775348268449</v>
       </c>
       <c r="B17">
-        <v>0.9953126311302185</v>
+        <v>0.999931812286377</v>
       </c>
       <c r="C17">
-        <v>0.004663704894483089</v>
+        <v>0.002444100100547075</v>
       </c>
       <c r="D17">
-        <v>0.9993442296981812</v>
+        <v>0.9994531273841858</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.009268315508961678</v>
+        <v>0.0006572164129465818</v>
       </c>
       <c r="B18">
-        <v>0.9951315522193909</v>
+        <v>0.9998295903205872</v>
       </c>
       <c r="C18">
-        <v>0.002417960204184055</v>
+        <v>0.003061622846871614</v>
       </c>
       <c r="D18">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.008870344609022141</v>
+        <v>0.0001622388954274356</v>
       </c>
       <c r="B19">
-        <v>0.9954534769058228</v>
+        <v>0.999931812286377</v>
       </c>
       <c r="C19">
-        <v>0.001171692390926182</v>
+        <v>0.004595072474330664</v>
       </c>
       <c r="D19">
-        <v>0.999489963054657</v>
+        <v>0.9996354579925537</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.009318721480667591</v>
+        <v>4.482537769945338E-05</v>
       </c>
       <c r="B20">
-        <v>0.9955741763114929</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.001172867137938738</v>
+        <v>0.004683293402194977</v>
       </c>
       <c r="D20">
-        <v>0.999489963054657</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.008593840524554253</v>
+        <v>0.000906155735719949</v>
       </c>
       <c r="B21">
-        <v>0.9958758950233459</v>
+        <v>0.9998125433921814</v>
       </c>
       <c r="C21">
-        <v>0.001350579201243818</v>
+        <v>0.006233714520931244</v>
       </c>
       <c r="D21">
-        <v>0.9993442296981812</v>
+        <v>0.9994531273841858</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.009307581000030041</v>
+        <v>0.0001905623648781329</v>
       </c>
       <c r="B22">
-        <v>0.9955339431762695</v>
+        <v>0.999931812286377</v>
       </c>
       <c r="C22">
-        <v>0.001290653832256794</v>
+        <v>0.005516344681382179</v>
       </c>
       <c r="D22">
-        <v>0.999489963054657</v>
+        <v>0.9996354579925537</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.009420525282621384</v>
+        <v>0.0001762445026542991</v>
       </c>
       <c r="B23">
-        <v>0.9952120184898376</v>
+        <v>0.999931812286377</v>
       </c>
       <c r="C23">
-        <v>0.001219181809574366</v>
+        <v>0.005234994925558567</v>
       </c>
       <c r="D23">
-        <v>0.999489963054657</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.008851123042404652</v>
+        <v>0.0003100775938946754</v>
       </c>
       <c r="B24">
-        <v>0.9955741763114929</v>
+        <v>0.999914824962616</v>
       </c>
       <c r="C24">
-        <v>0.002010358031839132</v>
+        <v>0.005051994230598211</v>
       </c>
       <c r="D24">
-        <v>0.9993442296981812</v>
+        <v>0.9994531273841858</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.009741540066897869</v>
+        <v>7.663914584554732E-05</v>
       </c>
       <c r="B25">
-        <v>0.9948901534080505</v>
+        <v>0.9999829530715942</v>
       </c>
       <c r="C25">
-        <v>0.00380669254809618</v>
+        <v>0.00594202009961009</v>
       </c>
       <c r="D25">
-        <v>0.9993442296981812</v>
+        <v>0.9992708563804626</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.01077430881559849</v>
+        <v>0.001122172921895981</v>
       </c>
       <c r="B26">
-        <v>0.9949706196784973</v>
+        <v>0.9998977780342102</v>
       </c>
       <c r="C26">
-        <v>0.001256832503713667</v>
+        <v>0.007453171536326408</v>
       </c>
       <c r="D26">
-        <v>0.999489963054657</v>
+        <v>0.9992708563804626</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.009092814289033413</v>
+        <v>0.0002121882571373135</v>
       </c>
       <c r="B27">
-        <v>0.995674729347229</v>
+        <v>0.9999488592147827</v>
       </c>
       <c r="C27">
-        <v>0.001407375908456743</v>
+        <v>0.005154968705028296</v>
       </c>
       <c r="D27">
-        <v>0.9994170665740967</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.008677861653268337</v>
+        <v>2.064303589577321E-05</v>
       </c>
       <c r="B28">
-        <v>0.9955339431762695</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.001287330058403313</v>
+        <v>0.005261867307126522</v>
       </c>
       <c r="D28">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.008799066767096519</v>
+        <v>5.666606375598349E-05</v>
       </c>
       <c r="B29">
-        <v>0.9956546425819397</v>
+        <v>0.9999829530715942</v>
       </c>
       <c r="C29">
-        <v>0.001282678917050362</v>
+        <v>0.004669816233217716</v>
       </c>
       <c r="D29">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0091822799295187</v>
+        <v>0.000384041981305927</v>
       </c>
       <c r="B30">
-        <v>0.9951114654541016</v>
+        <v>0.999914824962616</v>
       </c>
       <c r="C30">
-        <v>0.0009748386219143867</v>
+        <v>0.00964447483420372</v>
       </c>
       <c r="D30">
-        <v>0.9994170665740967</v>
+        <v>0.9989063143730164</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.008524461649358273</v>
+        <v>0.0009051908855326474</v>
       </c>
       <c r="B31">
-        <v>0.9954333305358887</v>
+        <v>0.9998977780342102</v>
       </c>
       <c r="C31">
-        <v>0.001098708482459188</v>
+        <v>0.004058398306369781</v>
       </c>
       <c r="D31">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.00949336402118206</v>
+        <v>9.731172031024471E-05</v>
       </c>
       <c r="B32">
-        <v>0.9953126311302185</v>
+        <v>0.9999659061431885</v>
       </c>
       <c r="C32">
-        <v>0.00107584975194186</v>
+        <v>0.004479608964174986</v>
       </c>
       <c r="D32">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.009108642116189003</v>
+        <v>0.0004871474229730666</v>
       </c>
       <c r="B33">
-        <v>0.9949907660484314</v>
+        <v>0.9998807311058044</v>
       </c>
       <c r="C33">
-        <v>0.00102001300547272</v>
+        <v>0.003534258343279362</v>
       </c>
       <c r="D33">
-        <v>0.999489963054657</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.008581042289733887</v>
+        <v>0.0001716290134936571</v>
       </c>
       <c r="B34">
-        <v>0.9957551956176758</v>
+        <v>0.9999488592147827</v>
       </c>
       <c r="C34">
-        <v>0.001042782212607563</v>
+        <v>0.004961859900504351</v>
       </c>
       <c r="D34">
-        <v>0.9994170665740967</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.009838566184043884</v>
+        <v>0.000564004760235548</v>
       </c>
       <c r="B35">
-        <v>0.9950108528137207</v>
+        <v>0.9998977780342102</v>
       </c>
       <c r="C35">
-        <v>0.00976625457406044</v>
+        <v>0.005187858827412128</v>
       </c>
       <c r="D35">
-        <v>0.9992713332176208</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.008432622998952866</v>
+        <v>0.0001657463290030137</v>
       </c>
       <c r="B36">
-        <v>0.9957753419876099</v>
+        <v>0.999914824962616</v>
       </c>
       <c r="C36">
-        <v>0.001126538380049169</v>
+        <v>0.004568100441247225</v>
       </c>
       <c r="D36">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.008704917505383492</v>
+        <v>0.000376501091523096</v>
       </c>
       <c r="B37">
-        <v>0.9953930974006653</v>
+        <v>0.9999488592147827</v>
       </c>
       <c r="C37">
-        <v>0.0009408654295839369</v>
+        <v>0.003094392595812678</v>
       </c>
       <c r="D37">
-        <v>0.999489963054657</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.008937020786106586</v>
+        <v>7.370269941020524E-06</v>
       </c>
       <c r="B38">
-        <v>0.9954131841659546</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.008867413736879826</v>
+        <v>0.003056098939850926</v>
       </c>
       <c r="D38">
-        <v>0.9992713332176208</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.008721551857888699</v>
+        <v>1.944142604770605E-05</v>
       </c>
       <c r="B39">
-        <v>0.9950712323188782</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.00340975821018219</v>
+        <v>0.003786645131185651</v>
       </c>
       <c r="D39">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.00842635240405798</v>
+        <v>0.0001192198251374066</v>
       </c>
       <c r="B40">
-        <v>0.9954333305358887</v>
+        <v>0.9999829530715942</v>
       </c>
       <c r="C40">
-        <v>0.003168723313137889</v>
+        <v>0.002626066096127033</v>
       </c>
       <c r="D40">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.008780546486377716</v>
+        <v>0.0003875205875374377</v>
       </c>
       <c r="B41">
-        <v>0.9955339431762695</v>
+        <v>0.999914824962616</v>
       </c>
       <c r="C41">
-        <v>0.002084123436361551</v>
+        <v>0.004368608351796865</v>
       </c>
       <c r="D41">
-        <v>0.9991984963417053</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.008719589561223984</v>
+        <v>0.0004514518950600177</v>
       </c>
       <c r="B42">
-        <v>0.9951315522193909</v>
+        <v>0.9998977780342102</v>
       </c>
       <c r="C42">
-        <v>0.002670306479558349</v>
+        <v>0.003108926117420197</v>
       </c>
       <c r="D42">
-        <v>0.9991984963417053</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.00840804073959589</v>
+        <v>8.368898852495477E-05</v>
       </c>
       <c r="B43">
-        <v>0.9954131841659546</v>
+        <v>0.9999659061431885</v>
       </c>
       <c r="C43">
-        <v>0.004714268259704113</v>
+        <v>0.00434858025982976</v>
       </c>
       <c r="D43">
-        <v>0.9991984963417053</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.00871859397739172</v>
+        <v>2.437766124785412E-05</v>
       </c>
       <c r="B44">
-        <v>0.9956144094467163</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.002476723166182637</v>
+        <v>0.004876092541962862</v>
       </c>
       <c r="D44">
-        <v>0.9991984963417053</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.008898387663066387</v>
+        <v>0.0001684932212810963</v>
       </c>
       <c r="B45">
-        <v>0.9954534769058228</v>
+        <v>0.9999659061431885</v>
       </c>
       <c r="C45">
-        <v>0.004443750716745853</v>
+        <v>0.006999948062002659</v>
       </c>
       <c r="D45">
-        <v>0.9990527629852295</v>
+        <v>0.9992708563804626</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.008342387154698372</v>
+        <v>0.0005449990276247263</v>
       </c>
       <c r="B46">
-        <v>0.9958356618881226</v>
+        <v>0.999931812286377</v>
       </c>
       <c r="C46">
-        <v>0.003080145921558142</v>
+        <v>0.005144125781953335</v>
       </c>
       <c r="D46">
-        <v>0.9990527629852295</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.008390046656131744</v>
+        <v>0.0002141451550414786</v>
       </c>
       <c r="B47">
-        <v>0.9958356618881226</v>
+        <v>0.9999829530715942</v>
       </c>
       <c r="C47">
-        <v>0.003876763628795743</v>
+        <v>0.006610941141843796</v>
       </c>
       <c r="D47">
-        <v>0.9991984963417053</v>
+        <v>0.9994531273841858</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.009328382089734077</v>
+        <v>0.0003499342419672757</v>
       </c>
       <c r="B48">
-        <v>0.9948901534080505</v>
+        <v>0.999931812286377</v>
       </c>
       <c r="C48">
-        <v>0.001664511626586318</v>
+        <v>0.007483762223273516</v>
       </c>
       <c r="D48">
-        <v>0.9991984963417053</v>
+        <v>0.9994531273841858</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.008551171980798244</v>
+        <v>0.001280618598684669</v>
       </c>
       <c r="B49">
-        <v>0.9956144094467163</v>
+        <v>0.9998636841773987</v>
       </c>
       <c r="C49">
-        <v>0.003393363440409303</v>
+        <v>0.005615551024675369</v>
       </c>
       <c r="D49">
-        <v>0.9991984963417053</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.008087413385510445</v>
+        <v>0.0001882129727164283</v>
       </c>
       <c r="B50">
-        <v>0.9957753419876099</v>
+        <v>0.9999659061431885</v>
       </c>
       <c r="C50">
-        <v>0.004807431250810623</v>
+        <v>0.005170683842152357</v>
       </c>
       <c r="D50">
-        <v>0.9978868961334229</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.008895776234567165</v>
+        <v>2.549076998548117E-05</v>
       </c>
       <c r="B51">
-        <v>0.9953528642654419</v>
+        <v>0.9999829530715942</v>
       </c>
       <c r="C51">
-        <v>0.002282810397446156</v>
+        <v>0.00534038245677948</v>
       </c>
       <c r="D51">
-        <v>0.9993442296981812</v>
+        <v>0.9998177289962769</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_5.xlsx
+++ b/run_log/run_results/train_history/training_history_run_5.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.05546469241380692</v>
+        <v>0.05463385581970215</v>
       </c>
       <c r="B2">
-        <v>0.9857710003852844</v>
+        <v>0.9848271608352661</v>
       </c>
       <c r="C2">
-        <v>0.02120971865952015</v>
+        <v>0.008333253674209118</v>
       </c>
       <c r="D2">
-        <v>0.9969012141227722</v>
+        <v>0.9983949661254883</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.008792893961071968</v>
+        <v>0.009050683118402958</v>
       </c>
       <c r="B3">
-        <v>0.9985515475273132</v>
+        <v>0.9983867406845093</v>
       </c>
       <c r="C3">
-        <v>0.01113342307507992</v>
+        <v>0.006796804256737232</v>
       </c>
       <c r="D3">
-        <v>0.9974480271339417</v>
+        <v>0.9987159967422485</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.004834053106606007</v>
+        <v>0.005266681313514709</v>
       </c>
       <c r="B4">
-        <v>0.9988753199577332</v>
+        <v>0.9985501170158386</v>
       </c>
       <c r="C4">
-        <v>0.009319002740085125</v>
+        <v>0.001667353790253401</v>
       </c>
       <c r="D4">
-        <v>0.9983594417572021</v>
+        <v>0.9995987415313721</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002686832100152969</v>
+        <v>0.002695761388167739</v>
       </c>
       <c r="B5">
-        <v>0.9991990923881531</v>
+        <v>0.9993261098861694</v>
       </c>
       <c r="C5">
-        <v>0.0302970577031374</v>
+        <v>0.0003038088616449386</v>
       </c>
       <c r="D5">
-        <v>0.9925264120101929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001079651061445475</v>
+        <v>0.001647535827942193</v>
       </c>
       <c r="B6">
-        <v>0.9996762275695801</v>
+        <v>0.9995711445808411</v>
       </c>
       <c r="C6">
-        <v>0.004310355987399817</v>
+        <v>0.000277533516054973</v>
       </c>
       <c r="D6">
-        <v>0.9990885853767395</v>
+        <v>0.9998394846916199</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001054073916748166</v>
+        <v>0.001343438751064241</v>
       </c>
       <c r="B7">
-        <v>0.9997784495353699</v>
+        <v>0.9996936917304993</v>
       </c>
       <c r="C7">
-        <v>0.006501364521682262</v>
+        <v>0.0005422402173280716</v>
       </c>
       <c r="D7">
-        <v>0.9992708563804626</v>
+        <v>0.9996789693832397</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001378633547574282</v>
+        <v>0.00114441174082458</v>
       </c>
       <c r="B8">
-        <v>0.9996932744979858</v>
+        <v>0.9996732473373413</v>
       </c>
       <c r="C8">
-        <v>0.002667276421561837</v>
+        <v>0.0004783542244695127</v>
       </c>
       <c r="D8">
-        <v>0.9998177289962769</v>
+        <v>0.9998394846916199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0008272122358903289</v>
+        <v>0.001100060646422207</v>
       </c>
       <c r="B9">
-        <v>0.999914824962616</v>
+        <v>0.9996732473373413</v>
       </c>
       <c r="C9">
-        <v>0.003131251782178879</v>
+        <v>0.0004847114905714989</v>
       </c>
       <c r="D9">
-        <v>0.9996354579925537</v>
+        <v>0.9996789693832397</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0006469819927588105</v>
+        <v>0.0009437543340027332</v>
       </c>
       <c r="B10">
-        <v>0.9998466372489929</v>
+        <v>0.9998570680618286</v>
       </c>
       <c r="C10">
-        <v>0.004196631256490946</v>
+        <v>7.103585812728852E-05</v>
       </c>
       <c r="D10">
-        <v>0.9996354579925537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0006968732341192663</v>
+        <v>0.0007627906743437052</v>
       </c>
       <c r="B11">
-        <v>0.9997614026069641</v>
+        <v>0.9997753500938416</v>
       </c>
       <c r="C11">
-        <v>0.003991793841123581</v>
+        <v>0.001276141148991883</v>
       </c>
       <c r="D11">
-        <v>0.9994531273841858</v>
+        <v>0.9997592568397522</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0005836400086991489</v>
+        <v>0.001428489573299885</v>
       </c>
       <c r="B12">
-        <v>0.9998636841773987</v>
+        <v>0.9997345209121704</v>
       </c>
       <c r="C12">
-        <v>0.003008679719641805</v>
+        <v>2.141471850336529E-05</v>
       </c>
       <c r="D12">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005657775327563286</v>
+        <v>0.0003187571419402957</v>
       </c>
       <c r="B13">
-        <v>0.9998295903205872</v>
+        <v>0.9998978972434998</v>
       </c>
       <c r="C13">
-        <v>0.002799747278913856</v>
+        <v>2.418840267637279E-05</v>
       </c>
       <c r="D13">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003733697230927646</v>
+        <v>0.0001668044278630987</v>
       </c>
       <c r="B14">
-        <v>0.999914824962616</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C14">
-        <v>0.004434531088918447</v>
+        <v>7.552432361990213E-05</v>
       </c>
       <c r="D14">
-        <v>0.9992708563804626</v>
+        <v>0.9999197721481323</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0005505099543370306</v>
+        <v>0.0002086235617753118</v>
       </c>
       <c r="B15">
-        <v>0.9998295903205872</v>
+        <v>0.9999591708183289</v>
       </c>
       <c r="C15">
-        <v>0.00376470317132771</v>
+        <v>6.022910019964911E-05</v>
       </c>
       <c r="D15">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0001653241779422387</v>
+        <v>0.0008502230048179626</v>
       </c>
       <c r="B16">
-        <v>0.9999659061431885</v>
+        <v>0.9997957944869995</v>
       </c>
       <c r="C16">
-        <v>0.003182498039677739</v>
+        <v>6.3439438235946E-06</v>
       </c>
       <c r="D16">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0001914775348268449</v>
+        <v>0.0009410029160790145</v>
       </c>
       <c r="B17">
-        <v>0.999931812286377</v>
+        <v>0.9997957944869995</v>
       </c>
       <c r="C17">
-        <v>0.002444100100547075</v>
+        <v>5.832837814523373E-06</v>
       </c>
       <c r="D17">
-        <v>0.9994531273841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0006572164129465818</v>
+        <v>0.000374061957700178</v>
       </c>
       <c r="B18">
-        <v>0.9998295903205872</v>
+        <v>0.9998774528503418</v>
       </c>
       <c r="C18">
-        <v>0.003061622846871614</v>
+        <v>3.66475524060661E-06</v>
       </c>
       <c r="D18">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0001622388954274356</v>
+        <v>0.0005728129763156176</v>
       </c>
       <c r="B19">
-        <v>0.999931812286377</v>
+        <v>0.9998774528503418</v>
       </c>
       <c r="C19">
-        <v>0.004595072474330664</v>
+        <v>7.164574981288752E-06</v>
       </c>
       <c r="D19">
-        <v>0.9996354579925537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>4.482537769945338E-05</v>
+        <v>0.0002683688944671303</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.9998978972434998</v>
       </c>
       <c r="C20">
-        <v>0.004683293402194977</v>
+        <v>2.085754567815457E-05</v>
       </c>
       <c r="D20">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.000906155735719949</v>
+        <v>0.0004725077305920422</v>
       </c>
       <c r="B21">
-        <v>0.9998125433921814</v>
+        <v>0.9998774528503418</v>
       </c>
       <c r="C21">
-        <v>0.006233714520931244</v>
+        <v>1.000747033685911E-05</v>
       </c>
       <c r="D21">
-        <v>0.9994531273841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0001905623648781329</v>
+        <v>0.0002783602685667574</v>
       </c>
       <c r="B22">
-        <v>0.999931812286377</v>
+        <v>0.9998570680618286</v>
       </c>
       <c r="C22">
-        <v>0.005516344681382179</v>
+        <v>8.233239350374788E-05</v>
       </c>
       <c r="D22">
-        <v>0.9996354579925537</v>
+        <v>0.9999197721481323</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0001762445026542991</v>
+        <v>3.40571059496142E-05</v>
       </c>
       <c r="B23">
-        <v>0.999931812286377</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C23">
-        <v>0.005234994925558567</v>
+        <v>1.646588202675048E-06</v>
       </c>
       <c r="D23">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0003100775938946754</v>
+        <v>4.139623342780396E-06</v>
       </c>
       <c r="B24">
-        <v>0.999914824962616</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.005051994230598211</v>
+        <v>1.726305868032796E-06</v>
       </c>
       <c r="D24">
-        <v>0.9994531273841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>7.663914584554732E-05</v>
+        <v>0.0001036266112350859</v>
       </c>
       <c r="B25">
-        <v>0.9999829530715942</v>
+        <v>0.9999591708183289</v>
       </c>
       <c r="C25">
-        <v>0.00594202009961009</v>
+        <v>4.269593773642555E-06</v>
       </c>
       <c r="D25">
-        <v>0.9992708563804626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.001122172921895981</v>
+        <v>0.0004910431453026831</v>
       </c>
       <c r="B26">
-        <v>0.9998977780342102</v>
+        <v>0.9997957944869995</v>
       </c>
       <c r="C26">
-        <v>0.007453171536326408</v>
+        <v>9.000656973512378E-06</v>
       </c>
       <c r="D26">
-        <v>0.9992708563804626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0002121882571373135</v>
+        <v>0.0003598150797188282</v>
       </c>
       <c r="B27">
-        <v>0.9999488592147827</v>
+        <v>0.9999183416366577</v>
       </c>
       <c r="C27">
-        <v>0.005154968705028296</v>
+        <v>4.982568952982547E-07</v>
       </c>
       <c r="D27">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>2.064303589577321E-05</v>
+        <v>4.669967893278226E-05</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C28">
-        <v>0.005261867307126522</v>
+        <v>4.337390180353395E-07</v>
       </c>
       <c r="D28">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>5.666606375598349E-05</v>
+        <v>1.625025288376492E-05</v>
       </c>
       <c r="B29">
-        <v>0.9999829530715942</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.004669816233217716</v>
+        <v>7.744901085970923E-05</v>
       </c>
       <c r="D29">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.000384041981305927</v>
+        <v>0.000184772870852612</v>
       </c>
       <c r="B30">
-        <v>0.999914824962616</v>
+        <v>0.9999591708183289</v>
       </c>
       <c r="C30">
-        <v>0.00964447483420372</v>
+        <v>4.94184450872126E-06</v>
       </c>
       <c r="D30">
-        <v>0.9989063143730164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0009051908855326474</v>
+        <v>0.001243882812559605</v>
       </c>
       <c r="B31">
-        <v>0.9998977780342102</v>
+        <v>0.9998162388801575</v>
       </c>
       <c r="C31">
-        <v>0.004058398306369781</v>
+        <v>3.348319296492264E-05</v>
       </c>
       <c r="D31">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>9.731172031024471E-05</v>
+        <v>0.0003245847474317998</v>
       </c>
       <c r="B32">
-        <v>0.9999659061431885</v>
+        <v>0.9999183416366577</v>
       </c>
       <c r="C32">
-        <v>0.004479608964174986</v>
+        <v>7.342269441323879E-07</v>
       </c>
       <c r="D32">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0004871474229730666</v>
+        <v>5.498053360497579E-05</v>
       </c>
       <c r="B33">
-        <v>0.9998807311058044</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C33">
-        <v>0.003534258343279362</v>
+        <v>3.527142382608872E-07</v>
       </c>
       <c r="D33">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001716290134936571</v>
+        <v>0.000274541846010834</v>
       </c>
       <c r="B34">
-        <v>0.9999488592147827</v>
+        <v>0.9999183416366577</v>
       </c>
       <c r="C34">
-        <v>0.004961859900504351</v>
+        <v>2.451183718221728E-05</v>
       </c>
       <c r="D34">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.000564004760235548</v>
+        <v>0.000220989910303615</v>
       </c>
       <c r="B35">
-        <v>0.9998977780342102</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C35">
-        <v>0.005187858827412128</v>
+        <v>6.711389687552582E-06</v>
       </c>
       <c r="D35">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001657463290030137</v>
+        <v>0.0005764481029473245</v>
       </c>
       <c r="B36">
-        <v>0.999914824962616</v>
+        <v>0.9999183416366577</v>
       </c>
       <c r="C36">
-        <v>0.004568100441247225</v>
+        <v>2.90350362774916E-05</v>
       </c>
       <c r="D36">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.000376501091523096</v>
+        <v>0.0001323032629443333</v>
       </c>
       <c r="B37">
-        <v>0.9999488592147827</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C37">
-        <v>0.003094392595812678</v>
+        <v>1.301797510677716E-06</v>
       </c>
       <c r="D37">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>7.370269941020524E-06</v>
+        <v>0.0004009020631201565</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9998978972434998</v>
       </c>
       <c r="C38">
-        <v>0.003056098939850926</v>
+        <v>1.390770648868056E-05</v>
       </c>
       <c r="D38">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.944142604770605E-05</v>
+        <v>5.005372440791689E-05</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C39">
-        <v>0.003786645131185651</v>
+        <v>2.648499958013417E-06</v>
       </c>
       <c r="D39">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0001192198251374066</v>
+        <v>0.0002380369114689529</v>
       </c>
       <c r="B40">
-        <v>0.9999829530715942</v>
+        <v>0.9999183416366577</v>
       </c>
       <c r="C40">
-        <v>0.002626066096127033</v>
+        <v>1.938965255021685E-07</v>
       </c>
       <c r="D40">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0003875205875374377</v>
+        <v>0.0006746638100594282</v>
       </c>
       <c r="B41">
-        <v>0.999914824962616</v>
+        <v>0.9998570680618286</v>
       </c>
       <c r="C41">
-        <v>0.004368608351796865</v>
+        <v>5.487586895469576E-05</v>
       </c>
       <c r="D41">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0004514518950600177</v>
+        <v>0.0001714193786028773</v>
       </c>
       <c r="B42">
-        <v>0.9998977780342102</v>
+        <v>0.9999591708183289</v>
       </c>
       <c r="C42">
-        <v>0.003108926117420197</v>
+        <v>1.916809196700342E-06</v>
       </c>
       <c r="D42">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>8.368898852495477E-05</v>
+        <v>5.287936346576316E-06</v>
       </c>
       <c r="B43">
-        <v>0.9999659061431885</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.00434858025982976</v>
+        <v>7.07420326762076E-07</v>
       </c>
       <c r="D43">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>2.437766124785412E-05</v>
+        <v>3.981957434007199E-06</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0.004876092541962862</v>
+        <v>1.474851387683884E-07</v>
       </c>
       <c r="D44">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0001684932212810963</v>
+        <v>0.0009792785858735442</v>
       </c>
       <c r="B45">
-        <v>0.9999659061431885</v>
+        <v>0.9998774528503418</v>
       </c>
       <c r="C45">
-        <v>0.006999948062002659</v>
+        <v>1.053171786224993E-06</v>
       </c>
       <c r="D45">
-        <v>0.9992708563804626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0005449990276247263</v>
+        <v>0.0002712005807552487</v>
       </c>
       <c r="B46">
-        <v>0.999931812286377</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C46">
-        <v>0.005144125781953335</v>
+        <v>4.352221196768369E-07</v>
       </c>
       <c r="D46">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0002141451550414786</v>
+        <v>3.098827437497675E-05</v>
       </c>
       <c r="B47">
-        <v>0.9999829530715942</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C47">
-        <v>0.006610941141843796</v>
+        <v>3.474413290405209E-07</v>
       </c>
       <c r="D47">
-        <v>0.9994531273841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0003499342419672757</v>
+        <v>1.451865045964951E-05</v>
       </c>
       <c r="B48">
-        <v>0.999931812286377</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.007483762223273516</v>
+        <v>6.213860359594037E-08</v>
       </c>
       <c r="D48">
-        <v>0.9994531273841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.001280618598684669</v>
+        <v>0.0002881486434489489</v>
       </c>
       <c r="B49">
-        <v>0.9998636841773987</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C49">
-        <v>0.005615551024675369</v>
+        <v>2.998918171215337E-05</v>
       </c>
       <c r="D49">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001882129727164283</v>
+        <v>0.0001554638729430735</v>
       </c>
       <c r="B50">
-        <v>0.9999659061431885</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C50">
-        <v>0.005170683842152357</v>
+        <v>0.0001027780162985437</v>
       </c>
       <c r="D50">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>2.549076998548117E-05</v>
+        <v>0.0005663592019118369</v>
       </c>
       <c r="B51">
-        <v>0.9999829530715942</v>
+        <v>0.9998774528503418</v>
       </c>
       <c r="C51">
-        <v>0.00534038245677948</v>
+        <v>8.347932123342616E-08</v>
       </c>
       <c r="D51">
-        <v>0.9998177289962769</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
